--- a/rssi_data.xlsx
+++ b/rssi_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6f84eda51a18887c/Documents/Microlocation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abi1k\OneDrive\Documents\Microlocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -149,57 +149,12 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="exp"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout/>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$1:$C$48</c:f>
+              <c:f>Sheet1!$C$1:$C$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>69</c:v>
                 </c:pt>
@@ -334,10 +289,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$1:$D$48</c:f>
+              <c:f>Sheet1!$D$1:$D$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>181</c:v>
                 </c:pt>
@@ -473,7 +428,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-790F-40B7-9740-12AEDAC57E05}"/>
+              <c16:uniqueId val="{00000000-41C9-4FF7-B3D8-BC4AB2D88602}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -485,11 +440,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="441791456"/>
-        <c:axId val="6860640"/>
+        <c:axId val="341630872"/>
+        <c:axId val="341632184"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="441791456"/>
+        <c:axId val="341630872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -546,12 +501,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="6860640"/>
+        <c:crossAx val="341632184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="6860640"/>
+        <c:axId val="341632184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -608,7 +563,1379 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="441791456"/>
+        <c:crossAx val="341630872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$1:$C$89</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="89"/>
+                <c:pt idx="0">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>63.7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>60.8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>51.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>61.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>69.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>70.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>71.2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>70.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>51.75</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>51.6</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>51.1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>60.428571428571402</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>66.827586206896498</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>77.285714285714207</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>67.571428571428498</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>74.068965517241296</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>86.4166666666666</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>80.25</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>84.56</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>83.909090909090907</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>75.214285714285694</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>74.655172413793096</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>82.965517241379303</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>81.16</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>84.482758620689594</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>84.038461538461505</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>83.478260869565204</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>84.2222222222222</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>88.409090909090907</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>89.304347826086897</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>88.4166666666666</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>88.538461538461505</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>87.227272727272705</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>85.370370370370296</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>83.642857142857096</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>89.482758620689594</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>81.571428571428498</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>86.55</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>86.5</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>84.466666666666598</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>82.103448275861993</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>87.56</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>86.785714285714207</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>81.466666666666598</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>78.464285714285694</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81.142857142857096</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>73.928571428571402</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>81.964285714285694</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>86.894736842105203</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>89.125</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>84.933333333333294</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>84.2222222222222</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>81.724137931034406</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>53.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$1:$D$89</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="89"/>
+                <c:pt idx="0">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>30.48</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45.72</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>60.96</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45.72</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>76.2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>91.44</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>60.96</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>106.68</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>121.92</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>91.44</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>60.96</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>60.96</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>137.16</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>137.16</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>152.4</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>152.4</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>121.92</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>121.92</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>167.64000000000001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>182.88</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>198.12</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>198.12</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>213.36</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>182.88</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>182.88</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>228.6</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>243.84</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>243.84</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>213.36</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>198.12</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>182.88</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>167.64000000000001</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>152.4</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>137.16</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>121.92</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>106.68</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>91.44</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>76.2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>60.96</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>152.4</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>259.08</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>274.32</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>304.8</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>304.8</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>335.28000000000003</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>15.24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-58F2-4CC9-9718-C4F792589844}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="628976080"/>
+        <c:axId val="628971160"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="628976080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="628971160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="628971160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="628976080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$44:$C$89</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>60.428571428571402</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66.827586206896498</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77.285714285714207</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>67.571428571428498</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>74.068965517241296</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>86.4166666666666</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>84.56</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>83.909090909090907</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>75.214285714285694</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>74.655172413793096</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>82.965517241379303</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>81.16</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>84.482758620689594</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>84.038461538461505</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>83.478260869565204</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>84.2222222222222</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>88.409090909090907</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>89.304347826086897</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>88.4166666666666</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>88.538461538461505</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>87.227272727272705</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>85.370370370370296</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>83.642857142857096</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>89.482758620689594</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>81.571428571428498</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>86.55</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>86.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>84.466666666666598</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>82.103448275861993</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>87.56</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>86.785714285714207</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>81.466666666666598</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>78.464285714285694</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>81.142857142857096</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>73.928571428571402</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>81.964285714285694</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>86.894736842105203</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>89.125</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>84.933333333333294</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>84.2222222222222</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>81.724137931034406</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>53.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$44:$D$89</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>30.48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45.72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60.96</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45.72</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>76.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>91.44</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60.96</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>106.68</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>121.92</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>91.44</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60.96</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60.96</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>137.16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>137.16</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>152.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>152.4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>121.92</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>121.92</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>167.64000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>182.88</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>198.12</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>198.12</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>213.36</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>182.88</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>182.88</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>228.6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>243.84</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>243.84</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>213.36</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>198.12</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>182.88</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>167.64000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>152.4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>137.16</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>121.92</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>106.68</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>91.44</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>76.2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>60.96</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>152.4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>259.08</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>274.32</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>304.8</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>304.8</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>335.28000000000003</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>15.24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8108-4081-A632-4B7AFD66C668}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="628971816"/>
+        <c:axId val="628975752"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="628971816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="628975752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="628975752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="628971816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -697,6 +2024,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1213,24 +2620,1056 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>392906</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>166688</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>41479</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>136524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>431006</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>14288</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>96785</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>11982</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="13" name="Chart 12"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1240,6 +3679,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>200229</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>141645</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>255536</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>17103</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Chart 13"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>517730</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95555</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>573036</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>150248</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Chart 14"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1511,10 +4010,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D43"/>
+  <dimension ref="B1:F89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="93" workbookViewId="0">
+      <selection activeCell="B89" sqref="B44:B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1536,7 +4035,7 @@
         <v>-65.5</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:C43" si="0">-B2</f>
+        <f t="shared" ref="C2:C65" si="0">-B2</f>
         <v>65.5</v>
       </c>
       <c r="D2">
@@ -1903,7 +4402,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B33">
         <v>-51.75</v>
       </c>
@@ -1915,7 +4414,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B34">
         <v>-51.6</v>
       </c>
@@ -1927,7 +4426,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B35">
         <v>-51.1</v>
       </c>
@@ -1939,7 +4438,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B36">
         <v>-45</v>
       </c>
@@ -1951,7 +4450,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B37">
         <v>-46</v>
       </c>
@@ -1963,7 +4462,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B38">
         <v>-46</v>
       </c>
@@ -1975,7 +4474,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B39">
         <v>-46</v>
       </c>
@@ -1987,7 +4486,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B40">
         <v>-49</v>
       </c>
@@ -1999,7 +4498,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B41">
         <v>-61</v>
       </c>
@@ -2011,7 +4510,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B42">
         <v>-49</v>
       </c>
@@ -2023,7 +4522,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B43">
         <v>-47</v>
       </c>
@@ -2033,6 +4532,742 @@
       </c>
       <c r="D43">
         <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B44">
+        <v>-60.428571428571402</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>60.428571428571402</v>
+      </c>
+      <c r="D44">
+        <f>30.48*F44</f>
+        <v>30.48</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B45">
+        <v>-66.827586206896498</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>66.827586206896498</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ref="D45:D89" si="1">30.48*F45</f>
+        <v>45.72</v>
+      </c>
+      <c r="F45">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B46">
+        <v>-77.285714285714207</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>77.285714285714207</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="1"/>
+        <v>60.96</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B47">
+        <v>-67.571428571428498</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>67.571428571428498</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="1"/>
+        <v>45.72</v>
+      </c>
+      <c r="F47">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B48">
+        <v>-74.068965517241296</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>74.068965517241296</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="1"/>
+        <v>76.2</v>
+      </c>
+      <c r="F48">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B49">
+        <v>-86.4166666666666</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>86.4166666666666</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="1"/>
+        <v>91.44</v>
+      </c>
+      <c r="F49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B50">
+        <v>-72</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="1"/>
+        <v>60.96</v>
+      </c>
+      <c r="F50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B51">
+        <v>-80.25</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="0"/>
+        <v>80.25</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="1"/>
+        <v>106.68</v>
+      </c>
+      <c r="F51">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B52">
+        <v>-84.56</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="0"/>
+        <v>84.56</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="1"/>
+        <v>121.92</v>
+      </c>
+      <c r="F52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B53">
+        <v>-83.909090909090907</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="0"/>
+        <v>83.909090909090907</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="1"/>
+        <v>91.44</v>
+      </c>
+      <c r="F53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B54">
+        <v>-75.214285714285694</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="0"/>
+        <v>75.214285714285694</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="1"/>
+        <v>60.96</v>
+      </c>
+      <c r="F54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B55">
+        <v>-74.655172413793096</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="0"/>
+        <v>74.655172413793096</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="1"/>
+        <v>60.96</v>
+      </c>
+      <c r="F55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B56">
+        <v>-82.965517241379303</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="0"/>
+        <v>82.965517241379303</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="1"/>
+        <v>137.16</v>
+      </c>
+      <c r="F56">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B57">
+        <v>-81.16</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="0"/>
+        <v>81.16</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="1"/>
+        <v>137.16</v>
+      </c>
+      <c r="F57">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B58">
+        <v>-84.482758620689594</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="0"/>
+        <v>84.482758620689594</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="1"/>
+        <v>152.4</v>
+      </c>
+      <c r="F58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B59">
+        <v>-84.038461538461505</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="0"/>
+        <v>84.038461538461505</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="1"/>
+        <v>152.4</v>
+      </c>
+      <c r="F59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B60">
+        <v>-83.478260869565204</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="0"/>
+        <v>83.478260869565204</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="1"/>
+        <v>121.92</v>
+      </c>
+      <c r="F60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B61">
+        <v>-84.2222222222222</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="0"/>
+        <v>84.2222222222222</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="1"/>
+        <v>121.92</v>
+      </c>
+      <c r="F61">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B62">
+        <v>-88.409090909090907</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="0"/>
+        <v>88.409090909090907</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="1"/>
+        <v>167.64000000000001</v>
+      </c>
+      <c r="F62">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B63">
+        <v>-89.304347826086897</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="0"/>
+        <v>89.304347826086897</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="1"/>
+        <v>182.88</v>
+      </c>
+      <c r="F63">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B64">
+        <v>-88.4166666666666</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="0"/>
+        <v>88.4166666666666</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="1"/>
+        <v>198.12</v>
+      </c>
+      <c r="F64">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B65">
+        <v>-88.538461538461505</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="0"/>
+        <v>88.538461538461505</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="1"/>
+        <v>198.12</v>
+      </c>
+      <c r="F65">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B66">
+        <v>-87.227272727272705</v>
+      </c>
+      <c r="C66">
+        <f t="shared" ref="C66:C89" si="2">-B66</f>
+        <v>87.227272727272705</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="1"/>
+        <v>213.36</v>
+      </c>
+      <c r="F66">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B67">
+        <v>-87</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="1"/>
+        <v>182.88</v>
+      </c>
+      <c r="F67">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B68">
+        <v>-85.370370370370296</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="2"/>
+        <v>85.370370370370296</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="1"/>
+        <v>182.88</v>
+      </c>
+      <c r="F68">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B69">
+        <v>-83.642857142857096</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="2"/>
+        <v>83.642857142857096</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="1"/>
+        <v>228.6</v>
+      </c>
+      <c r="F69">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B70">
+        <v>-88</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="2"/>
+        <v>88</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="1"/>
+        <v>243.84</v>
+      </c>
+      <c r="F70">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B71">
+        <v>-89.482758620689594</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="2"/>
+        <v>89.482758620689594</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="1"/>
+        <v>243.84</v>
+      </c>
+      <c r="F71">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B72">
+        <v>-81.571428571428498</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="2"/>
+        <v>81.571428571428498</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="1"/>
+        <v>213.36</v>
+      </c>
+      <c r="F72">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B73">
+        <v>-86.55</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="2"/>
+        <v>86.55</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="1"/>
+        <v>198.12</v>
+      </c>
+      <c r="F73">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B74">
+        <v>-86.5</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="2"/>
+        <v>86.5</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="1"/>
+        <v>182.88</v>
+      </c>
+      <c r="F74">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B75">
+        <v>-84.466666666666598</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="2"/>
+        <v>84.466666666666598</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="1"/>
+        <v>167.64000000000001</v>
+      </c>
+      <c r="F75">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B76">
+        <v>-82.103448275861993</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="2"/>
+        <v>82.103448275861993</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="1"/>
+        <v>152.4</v>
+      </c>
+      <c r="F76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B77">
+        <v>-87.56</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="2"/>
+        <v>87.56</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="1"/>
+        <v>137.16</v>
+      </c>
+      <c r="F77">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B78">
+        <v>-86.785714285714207</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="2"/>
+        <v>86.785714285714207</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="1"/>
+        <v>121.92</v>
+      </c>
+      <c r="F78">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B79">
+        <v>-81.466666666666598</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="2"/>
+        <v>81.466666666666598</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="1"/>
+        <v>106.68</v>
+      </c>
+      <c r="F79">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B80">
+        <v>-78.464285714285694</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="2"/>
+        <v>78.464285714285694</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="1"/>
+        <v>91.44</v>
+      </c>
+      <c r="F80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B81">
+        <v>-81.142857142857096</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="2"/>
+        <v>81.142857142857096</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="1"/>
+        <v>76.2</v>
+      </c>
+      <c r="F81">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B82">
+        <v>-73.928571428571402</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="2"/>
+        <v>73.928571428571402</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="1"/>
+        <v>60.96</v>
+      </c>
+      <c r="F82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B83">
+        <v>-81.964285714285694</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="2"/>
+        <v>81.964285714285694</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="1"/>
+        <v>152.4</v>
+      </c>
+      <c r="F83">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B84">
+        <v>-86.894736842105203</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="2"/>
+        <v>86.894736842105203</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="1"/>
+        <v>259.08</v>
+      </c>
+      <c r="F84">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B85">
+        <v>-89.125</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="2"/>
+        <v>89.125</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="1"/>
+        <v>274.32</v>
+      </c>
+      <c r="F85">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B86">
+        <v>-84.933333333333294</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="2"/>
+        <v>84.933333333333294</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="1"/>
+        <v>304.8</v>
+      </c>
+      <c r="F86">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B87">
+        <v>-84.2222222222222</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="2"/>
+        <v>84.2222222222222</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="1"/>
+        <v>304.8</v>
+      </c>
+      <c r="F87">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B88">
+        <v>-81.724137931034406</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="2"/>
+        <v>81.724137931034406</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="1"/>
+        <v>335.28000000000003</v>
+      </c>
+      <c r="F88">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B89">
+        <v>-53.75</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="2"/>
+        <v>53.75</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="1"/>
+        <v>15.24</v>
+      </c>
+      <c r="F89">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/rssi_data.xlsx
+++ b/rssi_data.xlsx
@@ -4010,10 +4010,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F89"/>
+  <dimension ref="B1:F135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="93" workbookViewId="0">
-      <selection activeCell="B89" sqref="B44:B89"/>
+    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="93" workbookViewId="0">
+      <selection activeCell="K94" sqref="K94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4891,7 +4891,7 @@
         <v>-87.227272727272705</v>
       </c>
       <c r="C66">
-        <f t="shared" ref="C66:C89" si="2">-B66</f>
+        <f t="shared" ref="C66:C129" si="2">-B66</f>
         <v>87.227272727272705</v>
       </c>
       <c r="D66">
@@ -5268,6 +5268,420 @@
       </c>
       <c r="F89">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B90">
+        <v>-64.44</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="2"/>
+        <v>64.44</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B91">
+        <v>-72</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B92">
+        <v>-77.272727272727195</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="2"/>
+        <v>77.272727272727195</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B93">
+        <v>-81.9583333333333</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="2"/>
+        <v>81.9583333333333</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B94">
+        <v>-81.521739130434696</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="2"/>
+        <v>81.521739130434696</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B95">
+        <v>-81.185185185185105</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="2"/>
+        <v>81.185185185185105</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B96">
+        <v>-82.588235294117595</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="2"/>
+        <v>82.588235294117595</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B97">
+        <v>-80.941176470588204</v>
+      </c>
+      <c r="C97">
+        <f t="shared" si="2"/>
+        <v>80.941176470588204</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B98">
+        <v>-81.260869565217305</v>
+      </c>
+      <c r="C98">
+        <f t="shared" si="2"/>
+        <v>81.260869565217305</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B99">
+        <v>-84.476190476190396</v>
+      </c>
+      <c r="C99">
+        <f t="shared" si="2"/>
+        <v>84.476190476190396</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B100">
+        <v>-83.210526315789394</v>
+      </c>
+      <c r="C100">
+        <f t="shared" si="2"/>
+        <v>83.210526315789394</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B101">
+        <v>-83.363636363636303</v>
+      </c>
+      <c r="C101">
+        <f t="shared" si="2"/>
+        <v>83.363636363636303</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B102">
+        <v>-83.35</v>
+      </c>
+      <c r="C102">
+        <f t="shared" si="2"/>
+        <v>83.35</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B103">
+        <v>-87.7777777777777</v>
+      </c>
+      <c r="C103">
+        <f t="shared" si="2"/>
+        <v>87.7777777777777</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B104">
+        <v>-86.142857142857096</v>
+      </c>
+      <c r="C104">
+        <f t="shared" si="2"/>
+        <v>86.142857142857096</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B105">
+        <v>-83.133333333333297</v>
+      </c>
+      <c r="C105">
+        <f t="shared" si="2"/>
+        <v>83.133333333333297</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B106">
+        <v>-85.052631578947299</v>
+      </c>
+      <c r="C106">
+        <f t="shared" si="2"/>
+        <v>85.052631578947299</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B107">
+        <v>-86</v>
+      </c>
+      <c r="C107">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B108">
+        <v>-90.75</v>
+      </c>
+      <c r="C108">
+        <f t="shared" si="2"/>
+        <v>90.75</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B109">
+        <v>-90.625</v>
+      </c>
+      <c r="C109">
+        <f t="shared" si="2"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B110">
+        <v>-85.823529411764696</v>
+      </c>
+      <c r="C110">
+        <f t="shared" si="2"/>
+        <v>85.823529411764696</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B111">
+        <v>-84.947368421052602</v>
+      </c>
+      <c r="C111">
+        <f t="shared" si="2"/>
+        <v>84.947368421052602</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B112">
+        <v>-84.315789473684205</v>
+      </c>
+      <c r="C112">
+        <f t="shared" si="2"/>
+        <v>84.315789473684205</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B113">
+        <v>-83.608695652173907</v>
+      </c>
+      <c r="C113">
+        <f t="shared" si="2"/>
+        <v>83.608695652173907</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B114">
+        <v>-83.875</v>
+      </c>
+      <c r="C114">
+        <f t="shared" si="2"/>
+        <v>83.875</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B115">
+        <v>-85.2222222222222</v>
+      </c>
+      <c r="C115">
+        <f t="shared" si="2"/>
+        <v>85.2222222222222</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B116">
+        <v>-85.625</v>
+      </c>
+      <c r="C116">
+        <f t="shared" si="2"/>
+        <v>85.625</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B117">
+        <v>-85.052631578947299</v>
+      </c>
+      <c r="C117">
+        <f t="shared" si="2"/>
+        <v>85.052631578947299</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B118">
+        <v>-85.052631578947299</v>
+      </c>
+      <c r="C118">
+        <f t="shared" si="2"/>
+        <v>85.052631578947299</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B119">
+        <v>-83.636363636363598</v>
+      </c>
+      <c r="C119">
+        <f t="shared" si="2"/>
+        <v>83.636363636363598</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B120">
+        <v>-84.047619047618994</v>
+      </c>
+      <c r="C120">
+        <f t="shared" si="2"/>
+        <v>84.047619047618994</v>
+      </c>
+    </row>
+    <row r="121" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B121">
+        <v>-85.235294117647001</v>
+      </c>
+      <c r="C121">
+        <f t="shared" si="2"/>
+        <v>85.235294117647001</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B122">
+        <v>-90.125</v>
+      </c>
+      <c r="C122">
+        <f t="shared" si="2"/>
+        <v>90.125</v>
+      </c>
+    </row>
+    <row r="123" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B123">
+        <v>-90.6666666666666</v>
+      </c>
+      <c r="C123">
+        <f t="shared" si="2"/>
+        <v>90.6666666666666</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B124">
+        <v>-83.894736842105203</v>
+      </c>
+      <c r="C124">
+        <f t="shared" si="2"/>
+        <v>83.894736842105203</v>
+      </c>
+    </row>
+    <row r="125" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B125">
+        <v>-82.411764705882305</v>
+      </c>
+      <c r="C125">
+        <f t="shared" si="2"/>
+        <v>82.411764705882305</v>
+      </c>
+    </row>
+    <row r="126" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B126">
+        <v>-85.461538461538396</v>
+      </c>
+      <c r="C126">
+        <f t="shared" si="2"/>
+        <v>85.461538461538396</v>
+      </c>
+    </row>
+    <row r="127" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B127">
+        <v>-86.6875</v>
+      </c>
+      <c r="C127">
+        <f t="shared" si="2"/>
+        <v>86.6875</v>
+      </c>
+    </row>
+    <row r="128" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B128">
+        <v>-78.117647058823493</v>
+      </c>
+      <c r="C128">
+        <f t="shared" si="2"/>
+        <v>78.117647058823493</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B129">
+        <v>-77.294117647058798</v>
+      </c>
+      <c r="C129">
+        <f t="shared" si="2"/>
+        <v>77.294117647058798</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B130">
+        <v>-87.0625</v>
+      </c>
+      <c r="C130">
+        <f t="shared" ref="C130:C135" si="3">-B130</f>
+        <v>87.0625</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B131">
+        <v>-89.6666666666666</v>
+      </c>
+      <c r="C131">
+        <f t="shared" si="3"/>
+        <v>89.6666666666666</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B132">
+        <v>-90.125</v>
+      </c>
+      <c r="C132">
+        <f t="shared" si="3"/>
+        <v>90.125</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B133">
+        <v>-85.636363636363598</v>
+      </c>
+      <c r="C133">
+        <f t="shared" si="3"/>
+        <v>85.636363636363598</v>
+      </c>
+    </row>
+    <row r="134" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B134">
+        <v>-85.0625</v>
+      </c>
+      <c r="C134">
+        <f t="shared" si="3"/>
+        <v>85.0625</v>
+      </c>
+    </row>
+    <row r="135" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B135">
+        <v>-93.5</v>
+      </c>
+      <c r="C135">
+        <f t="shared" si="3"/>
+        <v>93.5</v>
       </c>
     </row>
   </sheetData>

--- a/rssi_data.xlsx
+++ b/rssi_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="10785"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22500" windowHeight="10785"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -88,6 +88,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Abirami</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -627,6 +652,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Abirami</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> + Annie 1</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1442,6 +1497,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Annie 1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1984,6 +2064,3402 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Annie 2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$90:$C$135</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>64.44</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77.272727272727195</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>81.9583333333333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>81.521739130434696</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>81.185185185185105</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>82.588235294117595</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80.941176470588204</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>81.260869565217305</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>84.476190476190396</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>83.210526315789394</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>83.363636363636303</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>83.35</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>87.7777777777777</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>86.142857142857096</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>83.133333333333297</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85.052631578947299</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>90.75</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>85.823529411764696</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>84.947368421052602</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>84.315789473684205</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>83.608695652173907</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>83.875</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>85.2222222222222</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>85.625</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>85.052631578947299</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>85.052631578947299</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>83.636363636363598</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>84.047619047618994</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>85.235294117647001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>90.125</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>90.6666666666666</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>83.894736842105203</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>82.411764705882305</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>85.461538461538396</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>86.6875</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>78.117647058823493</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>77.294117647058798</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>87.0625</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>89.6666666666666</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>90.125</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>85.636363636363598</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>85.0625</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>93.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$90:$D$135</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>590</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5F0C-4ACA-840B-AA4C49E77620}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="628859272"/>
+        <c:axId val="628859600"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="628859272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="628859600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="628859600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="628859272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Abirami + Annie 2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Sheet1!$C$1:$C$43,Sheet1!$C$90:$C$135)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="89"/>
+                <c:pt idx="0">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>63.7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>60.8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>51.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>61.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>69.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>70.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>71.2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>70.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>51.75</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>51.6</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>51.1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>64.44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>77.272727272727195</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>81.9583333333333</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>81.521739130434696</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>81.185185185185105</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>82.588235294117595</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>80.941176470588204</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>81.260869565217305</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>84.476190476190396</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>83.210526315789394</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>83.363636363636303</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>83.35</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>87.7777777777777</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>86.142857142857096</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>83.133333333333297</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>85.052631578947299</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>90.75</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>85.823529411764696</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>84.947368421052602</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>84.315789473684205</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>83.608695652173907</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>83.875</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>85.2222222222222</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>85.625</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>85.052631578947299</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>85.052631578947299</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>83.636363636363598</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>84.047619047618994</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>85.235294117647001</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>90.125</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>90.6666666666666</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>83.894736842105203</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>82.411764705882305</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>85.461538461538396</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>86.6875</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>78.117647058823493</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>77.294117647058798</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>87.0625</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>89.6666666666666</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>90.125</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>85.636363636363598</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>85.0625</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>93.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet1!$D$1:$D$43,Sheet1!$D$90:$D$135)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="89"/>
+                <c:pt idx="0">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>590</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-88FE-4F79-84CC-B6379504A78A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="628967224"/>
+        <c:axId val="628969848"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="628967224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="628969848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="628969848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="628967224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Annie 1 + Annie 2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$44:$C$135</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="92"/>
+                <c:pt idx="0">
+                  <c:v>60.428571428571402</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66.827586206896498</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77.285714285714207</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>67.571428571428498</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>74.068965517241296</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>86.4166666666666</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>84.56</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>83.909090909090907</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>75.214285714285694</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>74.655172413793096</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>82.965517241379303</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>81.16</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>84.482758620689594</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>84.038461538461505</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>83.478260869565204</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>84.2222222222222</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>88.409090909090907</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>89.304347826086897</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>88.4166666666666</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>88.538461538461505</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>87.227272727272705</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>85.370370370370296</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>83.642857142857096</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>89.482758620689594</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>81.571428571428498</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>86.55</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>86.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>84.466666666666598</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>82.103448275861993</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>87.56</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>86.785714285714207</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>81.466666666666598</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>78.464285714285694</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>81.142857142857096</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>73.928571428571402</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>81.964285714285694</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>86.894736842105203</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>89.125</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>84.933333333333294</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>84.2222222222222</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>81.724137931034406</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>53.75</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>64.44</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>77.272727272727195</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>81.9583333333333</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>81.521739130434696</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>81.185185185185105</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>82.588235294117595</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>80.941176470588204</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>81.260869565217305</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>84.476190476190396</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>83.210526315789394</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>83.363636363636303</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>83.35</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>87.7777777777777</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>86.142857142857096</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>83.133333333333297</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>85.052631578947299</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>90.75</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>85.823529411764696</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>84.947368421052602</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>84.315789473684205</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>83.608695652173907</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>83.875</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>85.2222222222222</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>85.625</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>85.052631578947299</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>85.052631578947299</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>83.636363636363598</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>84.047619047618994</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>85.235294117647001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>90.125</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>90.6666666666666</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>83.894736842105203</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82.411764705882305</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>85.461538461538396</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>86.6875</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>78.117647058823493</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>77.294117647058798</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87.0625</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>89.6666666666666</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>90.125</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>85.636363636363598</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>85.0625</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>93.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$44:$D$135</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="92"/>
+                <c:pt idx="0">
+                  <c:v>30.48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45.72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60.96</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45.72</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>76.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>91.44</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60.96</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>106.68</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>121.92</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>91.44</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60.96</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60.96</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>137.16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>137.16</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>152.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>152.4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>121.92</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>121.92</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>167.64000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>182.88</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>198.12</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>198.12</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>213.36</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>182.88</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>182.88</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>228.6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>243.84</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>243.84</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>213.36</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>198.12</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>182.88</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>167.64000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>152.4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>137.16</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>121.92</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>106.68</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>91.44</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>76.2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>60.96</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>152.4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>259.08</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>274.32</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>304.8</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>304.8</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>335.28000000000003</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>15.24</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>590</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-24D2-427B-8018-246FFE6080BC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="484474208"/>
+        <c:axId val="484477816"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="484474208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="484477816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="484477816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="484474208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>ALL</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$1:$C$135</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="135"/>
+                <c:pt idx="0">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>63.7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>60.8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>51.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>61.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>69.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>70.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>71.2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>70.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>51.75</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>51.6</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>51.1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>60.428571428571402</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>66.827586206896498</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>77.285714285714207</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>67.571428571428498</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>74.068965517241296</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>86.4166666666666</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>80.25</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>84.56</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>83.909090909090907</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>75.214285714285694</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>74.655172413793096</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>82.965517241379303</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>81.16</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>84.482758620689594</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>84.038461538461505</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>83.478260869565204</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>84.2222222222222</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>88.409090909090907</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>89.304347826086897</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>88.4166666666666</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>88.538461538461505</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>87.227272727272705</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>85.370370370370296</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>83.642857142857096</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>89.482758620689594</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>81.571428571428498</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>86.55</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>86.5</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>84.466666666666598</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>82.103448275861993</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>87.56</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>86.785714285714207</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>81.466666666666598</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>78.464285714285694</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81.142857142857096</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>73.928571428571402</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>81.964285714285694</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>86.894736842105203</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>89.125</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>84.933333333333294</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>84.2222222222222</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>81.724137931034406</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>53.75</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>64.44</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>77.272727272727195</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>81.9583333333333</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>81.521739130434696</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>81.185185185185105</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>82.588235294117595</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>80.941176470588204</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>81.260869565217305</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>84.476190476190396</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>83.210526315789394</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>83.363636363636303</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>83.35</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>87.7777777777777</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>86.142857142857096</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>83.133333333333297</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>85.052631578947299</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>90.75</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>85.823529411764696</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>84.947368421052602</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>84.315789473684205</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>83.608695652173907</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>83.875</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>85.2222222222222</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>85.625</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>85.052631578947299</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>85.052631578947299</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>83.636363636363598</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>84.047619047618994</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>85.235294117647001</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>90.125</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>90.6666666666666</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>83.894736842105203</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>82.411764705882305</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>85.461538461538396</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>86.6875</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>78.117647058823493</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>77.294117647058798</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>87.0625</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>89.6666666666666</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>90.125</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>85.636363636363598</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>85.0625</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>93.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$1:$D$135</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="135"/>
+                <c:pt idx="0">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>30.48</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45.72</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>60.96</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45.72</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>76.2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>91.44</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>60.96</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>106.68</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>121.92</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>91.44</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>60.96</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>60.96</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>137.16</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>137.16</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>152.4</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>152.4</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>121.92</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>121.92</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>167.64000000000001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>182.88</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>198.12</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>198.12</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>213.36</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>182.88</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>182.88</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>228.6</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>243.84</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>243.84</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>213.36</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>198.12</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>182.88</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>167.64000000000001</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>152.4</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>137.16</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>121.92</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>106.68</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>91.44</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>76.2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>60.96</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>152.4</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>259.08</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>274.32</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>304.8</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>304.8</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>335.28000000000003</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>15.24</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>590</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-747C-45E1-A941-3CC6FEBD3005}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="346187776"/>
+        <c:axId val="346190728"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="346187776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="346190728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="346190728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="346187776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2104,6 +5580,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3137,6 +6773,2070 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3686,16 +9386,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>200229</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>141645</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>51722</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>69951</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>255536</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>17103</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>107028</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>124642</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3716,16 +9416,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>517730</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>95555</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>451157</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>141645</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>573036</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>150248</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>506464</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>17103</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3739,6 +9439,126 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>174625</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>167252</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>229931</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>42710</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="Chart 15"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>481883</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>34106</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>537190</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>88797</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="17" name="Chart 16"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>215591</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>80193</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>270897</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>134884</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="18" name="Chart 17"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>492125</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>126281</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>547432</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>1739</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="19" name="Chart 18"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4012,8 +9832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="93" workbookViewId="0">
-      <selection activeCell="K94" sqref="K94"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="93" workbookViewId="0">
+      <selection activeCell="AD43" sqref="AD43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5278,6 +11098,9 @@
         <f t="shared" si="2"/>
         <v>64.44</v>
       </c>
+      <c r="D90">
+        <v>50</v>
+      </c>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B91">
@@ -5287,6 +11110,9 @@
         <f t="shared" si="2"/>
         <v>72</v>
       </c>
+      <c r="D91">
+        <v>70</v>
+      </c>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B92">
@@ -5296,6 +11122,9 @@
         <f t="shared" si="2"/>
         <v>77.272727272727195</v>
       </c>
+      <c r="D92">
+        <v>90</v>
+      </c>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B93">
@@ -5305,6 +11134,9 @@
         <f t="shared" si="2"/>
         <v>81.9583333333333</v>
       </c>
+      <c r="D93">
+        <v>110</v>
+      </c>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B94">
@@ -5314,6 +11146,9 @@
         <f t="shared" si="2"/>
         <v>81.521739130434696</v>
       </c>
+      <c r="D94">
+        <v>110</v>
+      </c>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B95">
@@ -5323,6 +11158,9 @@
         <f t="shared" si="2"/>
         <v>81.185185185185105</v>
       </c>
+      <c r="D95">
+        <v>110</v>
+      </c>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B96">
@@ -5332,8 +11170,11 @@
         <f t="shared" si="2"/>
         <v>82.588235294117595</v>
       </c>
-    </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D96">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B97">
         <v>-80.941176470588204</v>
       </c>
@@ -5341,8 +11182,11 @@
         <f t="shared" si="2"/>
         <v>80.941176470588204</v>
       </c>
-    </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D97">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B98">
         <v>-81.260869565217305</v>
       </c>
@@ -5350,8 +11194,11 @@
         <f t="shared" si="2"/>
         <v>81.260869565217305</v>
       </c>
-    </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D98">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B99">
         <v>-84.476190476190396</v>
       </c>
@@ -5359,8 +11206,11 @@
         <f t="shared" si="2"/>
         <v>84.476190476190396</v>
       </c>
-    </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D99">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B100">
         <v>-83.210526315789394</v>
       </c>
@@ -5368,8 +11218,11 @@
         <f t="shared" si="2"/>
         <v>83.210526315789394</v>
       </c>
-    </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D100">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B101">
         <v>-83.363636363636303</v>
       </c>
@@ -5377,8 +11230,11 @@
         <f t="shared" si="2"/>
         <v>83.363636363636303</v>
       </c>
-    </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D101">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B102">
         <v>-83.35</v>
       </c>
@@ -5386,8 +11242,11 @@
         <f t="shared" si="2"/>
         <v>83.35</v>
       </c>
-    </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D102">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B103">
         <v>-87.7777777777777</v>
       </c>
@@ -5395,8 +11254,11 @@
         <f t="shared" si="2"/>
         <v>87.7777777777777</v>
       </c>
-    </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D103">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B104">
         <v>-86.142857142857096</v>
       </c>
@@ -5404,8 +11266,11 @@
         <f t="shared" si="2"/>
         <v>86.142857142857096</v>
       </c>
-    </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D104">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B105">
         <v>-83.133333333333297</v>
       </c>
@@ -5413,8 +11278,11 @@
         <f t="shared" si="2"/>
         <v>83.133333333333297</v>
       </c>
-    </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D105">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B106">
         <v>-85.052631578947299</v>
       </c>
@@ -5422,8 +11290,11 @@
         <f t="shared" si="2"/>
         <v>85.052631578947299</v>
       </c>
-    </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D106">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B107">
         <v>-86</v>
       </c>
@@ -5431,8 +11302,11 @@
         <f t="shared" si="2"/>
         <v>86</v>
       </c>
-    </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D107">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B108">
         <v>-90.75</v>
       </c>
@@ -5440,8 +11314,11 @@
         <f t="shared" si="2"/>
         <v>90.75</v>
       </c>
-    </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D108">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B109">
         <v>-90.625</v>
       </c>
@@ -5449,8 +11326,11 @@
         <f t="shared" si="2"/>
         <v>90.625</v>
       </c>
-    </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D109">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B110">
         <v>-85.823529411764696</v>
       </c>
@@ -5458,8 +11338,11 @@
         <f t="shared" si="2"/>
         <v>85.823529411764696</v>
       </c>
-    </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D110">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B111">
         <v>-84.947368421052602</v>
       </c>
@@ -5467,8 +11350,11 @@
         <f t="shared" si="2"/>
         <v>84.947368421052602</v>
       </c>
-    </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D111">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B112">
         <v>-84.315789473684205</v>
       </c>
@@ -5476,8 +11362,11 @@
         <f t="shared" si="2"/>
         <v>84.315789473684205</v>
       </c>
-    </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D112">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B113">
         <v>-83.608695652173907</v>
       </c>
@@ -5485,8 +11374,11 @@
         <f t="shared" si="2"/>
         <v>83.608695652173907</v>
       </c>
-    </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D113">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B114">
         <v>-83.875</v>
       </c>
@@ -5494,8 +11386,11 @@
         <f t="shared" si="2"/>
         <v>83.875</v>
       </c>
-    </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D114">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B115">
         <v>-85.2222222222222</v>
       </c>
@@ -5503,8 +11398,11 @@
         <f t="shared" si="2"/>
         <v>85.2222222222222</v>
       </c>
-    </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D115">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B116">
         <v>-85.625</v>
       </c>
@@ -5512,8 +11410,11 @@
         <f t="shared" si="2"/>
         <v>85.625</v>
       </c>
-    </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D116">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B117">
         <v>-85.052631578947299</v>
       </c>
@@ -5521,8 +11422,11 @@
         <f t="shared" si="2"/>
         <v>85.052631578947299</v>
       </c>
-    </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D117">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B118">
         <v>-85.052631578947299</v>
       </c>
@@ -5530,8 +11434,11 @@
         <f t="shared" si="2"/>
         <v>85.052631578947299</v>
       </c>
-    </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D118">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B119">
         <v>-83.636363636363598</v>
       </c>
@@ -5539,8 +11446,11 @@
         <f t="shared" si="2"/>
         <v>83.636363636363598</v>
       </c>
-    </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D119">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B120">
         <v>-84.047619047618994</v>
       </c>
@@ -5548,8 +11458,11 @@
         <f t="shared" si="2"/>
         <v>84.047619047618994</v>
       </c>
-    </row>
-    <row r="121" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D120">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B121">
         <v>-85.235294117647001</v>
       </c>
@@ -5557,8 +11470,11 @@
         <f t="shared" si="2"/>
         <v>85.235294117647001</v>
       </c>
-    </row>
-    <row r="122" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D121">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B122">
         <v>-90.125</v>
       </c>
@@ -5566,8 +11482,11 @@
         <f t="shared" si="2"/>
         <v>90.125</v>
       </c>
-    </row>
-    <row r="123" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D122">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B123">
         <v>-90.6666666666666</v>
       </c>
@@ -5575,8 +11494,11 @@
         <f t="shared" si="2"/>
         <v>90.6666666666666</v>
       </c>
-    </row>
-    <row r="124" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D123">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="124" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B124">
         <v>-83.894736842105203</v>
       </c>
@@ -5584,8 +11506,11 @@
         <f t="shared" si="2"/>
         <v>83.894736842105203</v>
       </c>
-    </row>
-    <row r="125" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D124">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="125" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B125">
         <v>-82.411764705882305</v>
       </c>
@@ -5593,8 +11518,11 @@
         <f t="shared" si="2"/>
         <v>82.411764705882305</v>
       </c>
-    </row>
-    <row r="126" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D125">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B126">
         <v>-85.461538461538396</v>
       </c>
@@ -5602,8 +11530,11 @@
         <f t="shared" si="2"/>
         <v>85.461538461538396</v>
       </c>
-    </row>
-    <row r="127" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D126">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B127">
         <v>-86.6875</v>
       </c>
@@ -5611,8 +11542,11 @@
         <f t="shared" si="2"/>
         <v>86.6875</v>
       </c>
-    </row>
-    <row r="128" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D127">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="128" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B128">
         <v>-78.117647058823493</v>
       </c>
@@ -5620,8 +11554,11 @@
         <f t="shared" si="2"/>
         <v>78.117647058823493</v>
       </c>
-    </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D128">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="129" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B129">
         <v>-77.294117647058798</v>
       </c>
@@ -5629,8 +11566,11 @@
         <f t="shared" si="2"/>
         <v>77.294117647058798</v>
       </c>
-    </row>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D129">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B130">
         <v>-87.0625</v>
       </c>
@@ -5638,8 +11578,11 @@
         <f t="shared" ref="C130:C135" si="3">-B130</f>
         <v>87.0625</v>
       </c>
-    </row>
-    <row r="131" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D130">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="131" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B131">
         <v>-89.6666666666666</v>
       </c>
@@ -5647,8 +11590,11 @@
         <f t="shared" si="3"/>
         <v>89.6666666666666</v>
       </c>
-    </row>
-    <row r="132" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D131">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="132" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B132">
         <v>-90.125</v>
       </c>
@@ -5656,8 +11602,11 @@
         <f t="shared" si="3"/>
         <v>90.125</v>
       </c>
-    </row>
-    <row r="133" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D132">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="133" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B133">
         <v>-85.636363636363598</v>
       </c>
@@ -5665,8 +11614,11 @@
         <f t="shared" si="3"/>
         <v>85.636363636363598</v>
       </c>
-    </row>
-    <row r="134" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D133">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="134" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B134">
         <v>-85.0625</v>
       </c>
@@ -5674,14 +11626,20 @@
         <f t="shared" si="3"/>
         <v>85.0625</v>
       </c>
-    </row>
-    <row r="135" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D134">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="135" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B135">
         <v>-93.5</v>
       </c>
       <c r="C135">
         <f t="shared" si="3"/>
         <v>93.5</v>
+      </c>
+      <c r="D135">
+        <v>590</v>
       </c>
     </row>
   </sheetData>
